--- a/excel/chipsets.xlsx
+++ b/excel/chipsets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsuto\Desktop\Project\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deniel0\Documents\GitHub\Bootstrsap\Project\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956CE001-1209-4A64-9F2B-9C926CFAA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -477,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -485,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -493,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -501,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -509,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -517,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -525,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -533,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -541,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -549,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -557,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -565,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -581,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -589,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -597,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -605,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -613,7 +612,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -621,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -629,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -645,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -653,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -661,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -669,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -677,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -685,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -693,7 +692,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -701,7 +700,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -709,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -717,7 +716,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -725,7 +724,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -733,10 +732,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B1:B34">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/chipsets.xlsx
+++ b/excel/chipsets.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>H410</t>
   </si>
@@ -35,97 +36,46 @@
     <t>H470</t>
   </si>
   <si>
-    <t>Q470</t>
-  </si>
-  <si>
     <t>Z490</t>
   </si>
   <si>
-    <t>W480</t>
-  </si>
-  <si>
-    <t>H510</t>
-  </si>
-  <si>
     <t>B560</t>
   </si>
   <si>
     <t>H570</t>
   </si>
   <si>
-    <t>Q570</t>
-  </si>
-  <si>
     <t>Z590</t>
   </si>
   <si>
-    <t>W580</t>
-  </si>
-  <si>
     <t>H610</t>
   </si>
   <si>
     <t>B660</t>
   </si>
   <si>
-    <t>H670</t>
-  </si>
-  <si>
     <t>Z690</t>
   </si>
   <si>
     <t>X570</t>
   </si>
   <si>
-    <t>PRO 565</t>
-  </si>
-  <si>
-    <t>PRO 500</t>
-  </si>
-  <si>
     <t>B550</t>
   </si>
   <si>
-    <t>A520</t>
-  </si>
-  <si>
-    <t>PRO 560</t>
-  </si>
-  <si>
-    <t>B550A</t>
-  </si>
-  <si>
     <t>X470</t>
   </si>
   <si>
     <t>B450</t>
   </si>
   <si>
-    <t>X370</t>
-  </si>
-  <si>
-    <t>X300</t>
-  </si>
-  <si>
     <t>B350</t>
   </si>
   <si>
-    <t>B300</t>
-  </si>
-  <si>
     <t>A320</t>
   </si>
   <si>
-    <t>A300</t>
-  </si>
-  <si>
-    <t>480X</t>
-  </si>
-  <si>
-    <t>570X</t>
-  </si>
-  <si>
-    <t>580X</t>
+    <t>TRX40</t>
   </si>
 </sst>
 </file>
@@ -168,9 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -451,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,272 +421,156 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B1:B34">
@@ -741,4 +578,265 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A48">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>